--- a/Files/Tables/Equipment/Standard/Standard Weapons.xlsx
+++ b/Files/Tables/Equipment/Standard/Standard Weapons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>WEAPON</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>RARITY</t>
-  </si>
-  <si>
-    <t>BONUS</t>
   </si>
   <si>
     <r>
@@ -74,6 +71,12 @@
       </rPr>
       <t xml:space="preserve"> of the mod</t>
     </r>
+  </si>
+  <si>
+    <t>BONUS(ES)</t>
+  </si>
+  <si>
+    <t>SOCKET COUNT</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K7"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,12 +497,14 @@
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -508,7 +513,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -517,8 +522,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -547,7 +552,10 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
